--- a/rubric/Rubric_Geomatics.xlsx
+++ b/rubric/Rubric_Geomatics.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugo/www/geo2020/rubric/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65AD469-0948-6F42-9BDD-BFAB8FD7D2EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30680" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Research</t>
   </si>
@@ -239,30 +258,27 @@
   </si>
   <si>
     <t xml:space="preserve">Just sufficient level of self-reflection, but should be more open to advise and feedback </t>
+  </si>
+  <si>
+    <t>grade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0%"/>
-    <numFmt numFmtId="60" formatCode="#,##0%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -272,8 +288,22 @@
       <color indexed="8"/>
       <name val="Tahoma Bold"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,8 +334,26 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -348,21 +396,6 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
@@ -388,75 +421,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="2" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,49 +599,113 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff84b4df"/>
-      <rgbColor rgb="ffa7a7a7"/>
-      <rgbColor rgb="ffadcdea"/>
-      <rgbColor rgb="ffe4e4e4"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF84B4DF"/>
+      <rgbColor rgb="FFA7A7A7"/>
+      <rgbColor rgb="FFADCDEA"/>
+      <rgbColor rgb="FFE4E4E4"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>983781</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>82766</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>969671</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>642977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>25399</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>151830</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>732366</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>246375</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Shape 2"/>
+        <xdr:cNvPr id="2" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11994681" y="10168471"/>
-          <a:ext cx="794219" cy="259565"/>
+          <a:off x="969671" y="10040977"/>
+          <a:ext cx="792806" cy="266620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -521,7 +718,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -546,7 +743,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -558,7 +755,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -579,7 +776,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -781,7 +978,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -800,7 +997,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -830,7 +1027,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -856,7 +1053,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -882,7 +1079,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -908,7 +1105,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -934,7 +1131,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -960,7 +1157,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -986,7 +1183,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1012,7 +1209,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1038,7 +1235,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1051,9 +1248,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1070,7 +1273,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1089,7 +1292,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1115,7 +1318,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1141,7 +1344,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1167,7 +1370,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1193,7 +1396,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1219,7 +1422,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,7 +1448,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1271,7 +1474,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,7 +1500,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1323,7 +1526,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1336,9 +1539,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1352,7 +1561,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1371,7 +1580,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1401,7 +1610,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1427,7 +1636,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1453,7 +1662,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1479,7 +1688,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1505,7 +1714,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1531,7 +1740,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1557,7 +1766,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1583,7 +1792,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1609,7 +1818,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1622,37 +1831,49 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.35156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="23" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35" customHeight="1"/>
-    <row r="2" ht="13.55" customHeight="1">
+    <row r="1" spans="2:9" ht="35" customHeight="1">
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="2:9" ht="13.5" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4">
@@ -1667,341 +1888,390 @@
       <c r="G2" s="4">
         <v>7</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="21">
         <v>6</v>
       </c>
+      <c r="I2" s="25" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="B3" t="s" s="6">
+    <row r="3" spans="2:9" ht="13.5" customHeight="1">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>0.5</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="26"/>
     </row>
-    <row r="4" ht="42" customHeight="1">
-      <c r="B4" t="s" s="9">
+    <row r="4" spans="2:9" ht="42" customHeight="1">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>0.05</v>
       </c>
-      <c r="D4" t="s" s="11">
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s" s="11">
+      <c r="E4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s" s="11">
+      <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s" s="11">
+      <c r="G4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s" s="11">
+      <c r="H4" s="23" t="s">
         <v>6</v>
       </c>
+      <c r="I4" s="27">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" ht="84.75" customHeight="1">
-      <c r="B5" t="s" s="12">
+    <row r="5" spans="2:9" ht="84.75" customHeight="1">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="9">
         <v>0.1</v>
       </c>
-      <c r="D5" t="s" s="11">
+      <c r="D5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s" s="11">
+      <c r="E5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s" s="11">
+      <c r="F5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s" s="11">
+      <c r="G5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s" s="11">
+      <c r="H5" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="I5" s="27">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" ht="53.25" customHeight="1">
-      <c r="B6" t="s" s="12">
+    <row r="6" spans="2:9" ht="53.25" customHeight="1">
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>0.15</v>
       </c>
-      <c r="D6" t="s" s="11">
+      <c r="D6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s" s="11">
+      <c r="E6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s" s="11">
+      <c r="F6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s" s="11">
+      <c r="G6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="s" s="11">
+      <c r="H6" s="23" t="s">
         <v>18</v>
       </c>
+      <c r="I6" s="27">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" ht="84.75" customHeight="1">
-      <c r="B7" t="s" s="12">
+    <row r="7" spans="2:9" ht="84.75" customHeight="1">
+      <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>0.15</v>
       </c>
-      <c r="D7" t="s" s="11">
+      <c r="D7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s" s="11">
+      <c r="E7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s" s="11">
+      <c r="F7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G7" t="s" s="11">
+      <c r="G7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H7" t="s" s="11">
+      <c r="H7" s="23" t="s">
         <v>24</v>
       </c>
+      <c r="I7" s="27">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" ht="42" customHeight="1">
-      <c r="B8" t="s" s="12">
+    <row r="8" spans="2:9" ht="42" customHeight="1">
+      <c r="B8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>0.05</v>
       </c>
-      <c r="D8" t="s" s="11">
+      <c r="D8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s" s="11">
+      <c r="E8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s" s="11">
+      <c r="F8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G8" t="s" s="11">
+      <c r="G8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H8" t="s" s="11">
+      <c r="H8" s="23" t="s">
         <v>30</v>
       </c>
+      <c r="I8" s="28">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" t="s" s="14">
+    <row r="9" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>0.2</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="29"/>
     </row>
-    <row r="10" ht="63.75" customHeight="1">
-      <c r="B10" t="s" s="12">
+    <row r="10" spans="2:9" ht="63.75" customHeight="1">
+      <c r="B10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>0.05</v>
       </c>
-      <c r="D10" t="s" s="11">
+      <c r="D10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s" s="11">
+      <c r="E10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" t="s" s="11">
+      <c r="F10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G10" t="s" s="11">
+      <c r="G10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H10" t="s" s="11">
+      <c r="H10" s="23" t="s">
         <v>37</v>
       </c>
+      <c r="I10" s="27">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" ht="53.25" customHeight="1">
-      <c r="B11" t="s" s="12">
+    <row r="11" spans="2:9" ht="53.25" customHeight="1">
+      <c r="B11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="9">
         <v>0.1</v>
       </c>
-      <c r="D11" t="s" s="11">
+      <c r="D11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E11" t="s" s="11">
+      <c r="E11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F11" t="s" s="11">
+      <c r="F11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G11" t="s" s="11">
+      <c r="G11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H11" t="s" s="11">
+      <c r="H11" s="23" t="s">
         <v>43</v>
       </c>
+      <c r="I11" s="27">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" ht="31.5" customHeight="1">
-      <c r="B12" t="s" s="12">
+    <row r="12" spans="2:9" ht="31.5" customHeight="1">
+      <c r="B12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>0.05</v>
       </c>
-      <c r="D12" t="s" s="11">
+      <c r="D12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="s" s="11">
+      <c r="E12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F12" t="s" s="11">
+      <c r="F12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G12" t="s" s="11">
+      <c r="G12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H12" t="s" s="11">
+      <c r="H12" s="23" t="s">
         <v>49</v>
       </c>
+      <c r="I12" s="27">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="B13" t="s" s="14">
+    <row r="13" spans="2:9" ht="13.5" customHeight="1">
+      <c r="B13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <v>0.15</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="30"/>
     </row>
-    <row r="14" ht="52.5" customHeight="1">
-      <c r="B14" t="s" s="12">
+    <row r="14" spans="2:9" ht="52.5" customHeight="1">
+      <c r="B14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="18">
-        <v>0.075</v>
-      </c>
-      <c r="D14" t="s" s="11">
+      <c r="C14" s="16">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E14" t="s" s="11">
+      <c r="E14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F14" t="s" s="11">
+      <c r="F14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G14" t="s" s="11">
+      <c r="G14" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H14" t="s" s="11">
+      <c r="H14" s="23" t="s">
         <v>56</v>
       </c>
+      <c r="I14" s="27">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" ht="63" customHeight="1">
-      <c r="B15" t="s" s="19">
+    <row r="15" spans="2:9" ht="63" customHeight="1">
+      <c r="B15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="20">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="D15" t="s" s="11">
+      <c r="C15" s="18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E15" t="s" s="11">
+      <c r="E15" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F15" t="s" s="11">
+      <c r="F15" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G15" t="s" s="11">
+      <c r="G15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H15" t="s" s="11">
+      <c r="H15" s="23" t="s">
         <v>62</v>
       </c>
+      <c r="I15" s="27">
+        <v>6</v>
+      </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" t="s" s="14">
+    <row r="16" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="15">
         <v>0.15</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="31"/>
     </row>
-    <row r="17" ht="63.75" customHeight="1">
-      <c r="B17" t="s" s="12">
+    <row r="17" spans="2:9" ht="63.75" customHeight="1">
+      <c r="B17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>0.08</v>
       </c>
-      <c r="D17" t="s" s="11">
+      <c r="D17" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E17" t="s" s="11">
+      <c r="E17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F17" t="s" s="11">
+      <c r="F17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G17" t="s" s="11">
+      <c r="G17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H17" t="s" s="11">
+      <c r="H17" s="23" t="s">
         <v>69</v>
       </c>
+      <c r="I17" s="32">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" ht="52.5" customHeight="1">
-      <c r="B18" t="s" s="12">
+    <row r="18" spans="2:9" ht="52.5" customHeight="1">
+      <c r="B18" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="10">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="D18" t="s" s="11">
+      <c r="C18" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E18" t="s" s="11">
+      <c r="E18" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F18" t="s" s="11">
+      <c r="F18" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G18" t="s" s="11">
+      <c r="G18" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H18" t="s" s="11">
+      <c r="H18" s="23" t="s">
         <v>75</v>
+      </c>
+      <c r="I18" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="35" customHeight="1">
+      <c r="I19" s="33">
+        <f>I4*0.05+I5*0.1+I6*0.15+I7*0.15+I8*0.05+I10*0.05+I11*0.1+I12*0.05+I14*0.08+I15*0.07+I17*0.08+I18*0.07</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.787402" right="0" top="0" bottom="0" header="0.10315" footer="0.10315"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="65" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageMargins left="0.78740200000000005" right="0" top="0" bottom="0" header="0.10315000000000001" footer="0.10315000000000001"/>
+  <pageSetup scale="65" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/rubric/Rubric_Geomatics.xlsx
+++ b/rubric/Rubric_Geomatics.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugo/www/geo2020/rubric/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claragarciasan/Documents/TUDelft/GitRepos/geo2020/rubric/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65AD469-0948-6F42-9BDD-BFAB8FD7D2EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E1CB0A3-0478-B542-8B96-46BC6E1232CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30680" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="new version" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'new version'!$A$1:$D$7</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,6 +26,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,280 +36,377 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
-  <si>
-    <t>Research</t>
-  </si>
-  <si>
-    <t>motivation/problem definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excellent motivation. The complexity of the problem is very well understood to the details and addressed   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very  good motivation. The complexity of the problem is well understood and addressed </t>
-  </si>
-  <si>
-    <t>Good  motivation. The complexity of the problem is fully taken into consideration</t>
-  </si>
-  <si>
-    <t>Adequate motivation. The complexity of the problem is only partially taken into consideration</t>
-  </si>
-  <si>
-    <t>Just adequate motivation. The complexity of the problem not fully taken into consideration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">theoretical framework </t>
-  </si>
-  <si>
-    <t>Has independently developed a new piece of theory</t>
-  </si>
-  <si>
-    <t>Has independently collected, processed and integrated theory from different fields or sources and independently applied theory to the performed research</t>
-  </si>
-  <si>
-    <t>Understands and can reproduce directly relevant theory at the level of MSc textbooks, scientific literature and applied theory to the performed research</t>
-  </si>
-  <si>
-    <t>Understands and can reproduce directly relevant theory at the level of MSc textbooks and is able to apply this theory to the performed research, after being shown how to do so</t>
-  </si>
-  <si>
-    <t>Understands and can reproduce directly  relevant theory at the level of MSc textbooks, but has difficulties applying theory to performed research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">analysis, research results </t>
-  </si>
-  <si>
-    <t>Has produced new knowledge and/or methods, not previously available in the world.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Has produced new knowledge and/or methods not previously available in the group</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Has well extended existing knowledge and/or methods, not previously available in the field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Has sufficiently extended existing knowledge, data or methods available in the field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Has only verified knowledge, data and/or methods available in de field</t>
-  </si>
-  <si>
-    <t>conclusion recommendation</t>
-  </si>
-  <si>
-    <t>Perfectly structured scientific conclusions and judgement of own results, literature and specialists. Recommendations are towards new directions not available in the world</t>
-  </si>
-  <si>
-    <t>Very well balanced scientific conclusions and judgement of own results, literature and specialists. Recommendations are good and sound</t>
-  </si>
-  <si>
-    <t>Good scientific conclusions and judgement of own results, literature and specialists. Recommendations are good and sound</t>
-  </si>
-  <si>
-    <t>Sufficient scientific conclusion and judgement of own results, limited critical attitude towards literature and specialists. Recommendations are adequate</t>
-  </si>
-  <si>
-    <t>Limited scientific conclusions and judgement of own results. Recommendations are just adequate</t>
-  </si>
-  <si>
-    <t>references</t>
-  </si>
-  <si>
-    <t>Sources of information are fully clear and elaborated and used fully consistently and conscientiously</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sources of information and scientific references are elaborated and used with care. </t>
-  </si>
-  <si>
-    <t>Sources of information and scientific references are clear and used in a consistent manner</t>
-  </si>
-  <si>
-    <t>Sources of information and scientific references are provided but not in a adequate way</t>
-  </si>
-  <si>
-    <t>Sources of information and scientific references are provided but are not complete</t>
-  </si>
-  <si>
-    <t>Presentation</t>
-  </si>
-  <si>
-    <t>written report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Written report has perfect structure, consistency and clarity.  No corrections needed to be appointed out by supervisors </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Written report has a very good structure, consistency and clarity.  Virtually no corrections needed to be appointed out by supervisors </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Written report has good structure, consistency and clarity.  limited corrections needed to be appointed out by supervisors </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Written report has adequate structure, consistency and clarity.  Important corrections needed to be appointed out by supervisors </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Written report has just right with structure, consistency and clarity.  Significant corrections needed to be appointed out by supervisors </t>
-  </si>
-  <si>
-    <t xml:space="preserve">oral (answering questions) </t>
-  </si>
-  <si>
-    <t>Excellent and persuasive speaker. Answers questions perfectly to the point and with depth</t>
-  </si>
-  <si>
-    <t>Very good and persuasive speaker. Answers questions very well. Answers sound and well explained</t>
-  </si>
-  <si>
-    <t>Good speaker, give a clear presentation. Answers questions well. Answers are correct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adequate speaker. Can answer questions. Not all answers are good </t>
-  </si>
-  <si>
-    <t>As a speaker just adequate. Has difficulties answering questions</t>
-  </si>
-  <si>
-    <t>graphics and demo presentation</t>
-  </si>
-  <si>
-    <t>Excellent presentation material. Makes use of all possibilities</t>
-  </si>
-  <si>
-    <t>Very good presentation material. Makes use of possibilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good presentation material. Appropriate demos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adequate presentation material. No specific demos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presentation material just adequate </t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>originality and scientific level</t>
-  </si>
-  <si>
-    <t>Has surprised us all with some brilliant new ideas</t>
-  </si>
-  <si>
-    <t>Has had several original ideas not initiated or thought of by the supervisor</t>
-  </si>
-  <si>
-    <t>Has had at least one original contribution to the project not initiated or thought of by the supervisor</t>
-  </si>
-  <si>
-    <t>Has made a partial original contribution to the project</t>
-  </si>
-  <si>
-    <t>Has made a contribution to the project, but not really original</t>
-  </si>
-  <si>
-    <t>independence and own initiative, planning</t>
-  </si>
-  <si>
-    <t>The student proactively initiated (new) methods and approaches. Has complete autonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methods and approaches were essentially selected by the student. Very good planning </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Significant own initiative and input  into methods and approaches. Good planning </t>
-  </si>
-  <si>
-    <t>Took occasionally initiative to extend and modify methods and approaches suggested by the supervisor(s). Adequate planning</t>
-  </si>
-  <si>
-    <t>Showed little initiative and executed methods and approaches suggested by the supervisor(s). Difficulties with planning</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skills, academic attitude </t>
-  </si>
-  <si>
-    <t>Exceptional analytical, logical and integration skills, actively seeking for feedback to improve him/herself</t>
-  </si>
-  <si>
-    <t>Very good analytical , logical and integration skills,  uses feedback to improve him/herself</t>
-  </si>
-  <si>
-    <t>Good analytical, logical and integration skills, can handle feedback in a positive way</t>
-  </si>
-  <si>
-    <t>Sufficient on analytical, logical and integration skills, responds to feedback,  but can get demotivated by feedback</t>
-  </si>
-  <si>
-    <t>Just sufficient analytical, logical and integration skills, responds to feedback in a defensive way, or gets demotivated by feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reflection </t>
-  </si>
-  <si>
-    <t>is good in self-reflection and steers the project, based on own insights and sought after advice from others</t>
-  </si>
-  <si>
-    <t>is good in self-reflection and takes the right decisions based on own insights and sought after advice from others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good balance between independent opinion, self-reflection and openness to advise and feedback from specialist </t>
-  </si>
-  <si>
-    <t>Sufficient level of self-reflection, but could be more open to advise and feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just sufficient level of self-reflection, but should be more open to advise and feedback </t>
-  </si>
-  <si>
-    <t>grade</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>mark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>category</t>
+    </r>
+  </si>
+  <si>
+    <t>Research (50%)</t>
+  </si>
+  <si>
+    <t>Process (20%)</t>
+  </si>
+  <si>
+    <t>Expected output</t>
+  </si>
+  <si>
+    <t>- General problem cannot be explained
+- No specific research questions/objectives
+- Unable to place the research in a wider context, no clear literature research
+- The research resulted in almost no work, using  already existing sources
+- The results do not answer the research questions
+- No substantial conclusions</t>
+  </si>
+  <si>
+    <t>- Not autonomus or proactive at all
+- Never responsive when new alternatives are suggested
+- Rarely taking in feedback from supervisors and implementing changes
+- Misuse of resources (data, computational time, people time)
+- No real planning, missed most of the deadlines
+- No original ideas were provided within the project, most of the work is copied and already developed</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Motivation can be broadly discerned, but it is not well understood
+- General problem is vague or without clear boundaries (scope)
+- Sufficient introduction and justification of the research topic, but superficial (limited literature review)
+- The choices of methods and data are not justified or explained
+- Limited critical attitude and ability to reflect on the wides scope of application of the research
+- The answers to the research questions are satisfactory
+- Results interpreted to a limited extent
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Motivation is clearly shown and connected to the probelm
+- General problem is clear and has defined limitations
+- Good introduction and justification of the research topic with supporting literature (but not all included)
+- The choices of methods and data are justified and logical
+- Demonstrate critical attitude and ability to reflect on the wides scope of application of the research
+- The answers to the research questions are good
+- Results interpreted critically and discussed in a broader scope of the discipline
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Motivation is clearly described and connected with the need of solutions of the problem
+- General problem is clear, has boundaries or limitations and is feasible
+- Good introduction and justification of the research topic, with vast literature support
+- The choices of methods and data are justified and logical
+- Good critical attitude and ability to reflect on the wides scope of application of the research
+- The answers to the research qestions are very good
+- Results interpreted critically and discussed in a broader scope of the discipline, with proposed solutions or alternative approaches when necessary
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Motivation is perfectly presented and connected with the need of solutions of the problem
+- General problem is clear, has boundaries or limitations and is feasible with the approach proposed
+- Excellent introduction and justification of the research topic, with all literature support
+- The choices of methods and data are justified, logical and the most efficient at the moment
+- Excellent critical attitude and ability to reflect on the wides scope of application of the research, making connection to simultaneous research performed by other peers
+- Results interpreted critically and discussed in a broader scope of the discipline, with proposed solutions or alternative approaches when necessary
+- The answers to the research questions are excellent
+- There is a clear evidence that the student is able to design new techniques  or combine different techniques succesfully in an innovative manner
+</t>
+  </si>
+  <si>
+    <t>More than satisfactory thesis that with some additional work can be published in a professional magazine. Code or materials are (re)usable after major modifications.</t>
+  </si>
+  <si>
+    <t>Good thesis that can serve for a conference abstract and presented in the conference. Journal publication with really major work. Code or materials are (re)usable for further research with minor editions.</t>
+  </si>
+  <si>
+    <t>Very good thesis, by itself worth to publish in a good journal. Minor work required to achieve this goal. Code or materials are (re)usable for further research in their current state.</t>
+  </si>
+  <si>
+    <t>Excellent high-quality thesis, candidate is capable of submitting journal article to a top journal with bare minimum supervision. Code or materials are (re)usable for further research in their current state, and they represent an innovative element in the broader research context.</t>
+  </si>
+  <si>
+    <t>- Sometimes autonomous and proactive, but generally needed steering by supervisors
+- Rarely came up with creative new ideas and new sources of information
+- Little response/action to feedback from supervisors for self-improvement
+- Makes inefficient but passable use of resources (e.g. tools, data, own/supervisor’s time)
+- Contribution to the project is somewhat original
+- Limited initiative and suggestions within the project
+- Basic timeline and plan prepared, but little followed or updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Motivation can be understood and related to the problem
+- General problem is clear with defined boundaries (scope)
+- Sufficient introduction and justification of the research topic, with fair literature support (decent literature review)
+- The choices of methods and data are partly justified
+- Fair critical attitude and ability to reflect on the wides scope of application of the research
+- The answers for the research questions are more than satisfactory
+- Results interpreted with a critical attitude independently
+</t>
+  </si>
+  <si>
+    <t>- Mostly autonomous, generally trying approaches before asking for help
+- Few times came up with new ideas or found new sources of information
+- Was able to contribute to discussions about the research during meetings
+- Critical attitude towards the work done, but most key issues had to be pointed out by supervisors
+- Uses feedback from supervisors for self-improvement
+- Use of resources is appropriate (e.g., tools, data, own/supervisor’s time)
+- Contribution to the project is partly original
+- Some initiative and suggestions by the student
+- Good timeline and plan prepared, often followed or updated</t>
+  </si>
+  <si>
+    <t>- Mostly autonomous and proactive, generally taking control of the project and steering it to completion with some hiccups
+- Sometimes came up with new ideas and found new sources of information
+- Was able to contribute to lively discussions about the project during meetings
+- Critical attitude towards the work done, but key issues had to be pointed out by supervisors
+- Sometimes uses feedback from supervisors for self-improvement
+- Makes good use of resources (e.g. tools, data, own/supervisor’s time)
+- Contribution to the project is original, with suggestions by supervisors
+- Several initiative and suggestions within the project
+- Prepared a good and feasible plan at the beginning of the research project, which was mostly followed or adjusted when needed (e.g. according to progress and new findings)</t>
+  </si>
+  <si>
+    <t>- Autonomous and proactive, taking control of the project and steering it 
+- Most times came up with new ideas and found new sources of information
+- Was able to lead lively discussions about the research during meetings
+- Critical attitude towards the work done, pointing out the issues by him/her/theirselves
+- Uses feedback from supervisors for self-improvement
+- Makes very good use of resources (e.g. tools, data, own/supervisor’s time)
+- Contribution to the project is original, with almost no intervention by supervisors
+- Many initiative and suggestions within the project
+- Prepared a clear and feasible plan at the beginning of the research project, which was followed and improved when needed (e.g. according to progress and new findings)</t>
+  </si>
+  <si>
+    <t>- Highly autonomous and proactive throughout the process, taking full control of the project and steering it to completion in an efficient manner
+- Always came up with creative new ideas and found new sources of information
+- Was able to lead lively discussions about the research during meetings
+- Critical own attitude towards the work done
+- Actively uses both own discoveries and feedback from supervisors for self-improvement
+- Makes highly efficient use of resources (e.g. tools, data, own/supervisor’s time)
+- Contribution to the project is original
+- Makes all initiative and suggestions within the project
+- Prepared an efficient, clear and feasible plan at the beginning of the research project, which was followed and improved when needed (e.g. according to progress and new findings)</t>
+  </si>
+  <si>
+    <t>Sufficient thesis, a publication in a professional magazine would a require major effort. 
+Code or materials need significant effort to be reusable.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Communication (30%) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Report (60%) &amp; Presentation (40%))</t>
+    </r>
+  </si>
+  <si>
+    <t>insufficient (&lt;5,75)</t>
+  </si>
+  <si>
+    <t>- Report has no structure
+- Report does not document sufficiently the research done, not reproducible
+- Report lacks visual material
+- Presentation is chaotic, not clear structure
+- Presentation has no motivation
+- In presentation loses audience rapidly
+- Candidate cannot address the questions posed
+- Clear lack of understanding of the scientific problem under study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Report has just right structure, consistency and clarity, with significant corrections by supervisors
+- Report does not document all the parts of the research done (reproducibility issues)
+- Presentation follows a structure, but with some issues in clarity
+- Presentation gives a decent summary of motivation, problem, work done, results and conclusions
+- Sufficient presentation material (e.g. slides, videos, demos)
+- Interaction with the audience is sufficient (eye contact, body language, tone of voice, pace of speaking)
+- Gets attention of the audience
+- Can answer most of the questions raised
+- Shows superficial knowledge, not in depth control of the topic
+</t>
+  </si>
+  <si>
+    <t>- Report follows a structure, with issues in clarity and organization
+- Report documents all the parts of the research done (no reproducibility issues)
+- Report is generally well written, but contains significant errors and needs improvements
+- Abstract does not capture most of the work
+- Report properly acknowledges other work broadly and contains a fair list of references
+- Presentation follows a structure, but with some issues in clarity and organization
+- Presentation gives a decent summary of motivation, problem, work done, results and conclusions
+- Good presentation material (e.g. slides, videos, demos)
+- Interaction with the audience is appropriate (eye contact, body language, tone of voice, pace of speaking)
+- Gets attention of the audience and maintains it to some extent
+- Questions are answered well with some gaps
+- Confident with the content for its application</t>
+  </si>
+  <si>
+    <t>- Report follows a structure, with minor issues in clarity
+- Report documents all the parts of the research done (no reproducibility issues)
+- Report is generally well written, but contains a few errors and needs improvements
+- Abstract captures most of the work
+- Report properly acknowledges other work most of the time and contains a mostly complete list of references
+- Work yields some other output (e.g. software, data), which is added to the report
+- Presentation follows a structure, but with some issues in clarity
+- Presentation gives a good summary of motivation, problem, work done, results and conclusions
+- More than satisfactory material (e.g. slides, videos, demos)
+- Interaction with the audience is good (eye contact, body language, tone of voice, pace of speaking)
+- Maintains attention of the audience for most of the presentation
+- Most questions are correctly answered
+- Very confident with the content at a research and development level</t>
+  </si>
+  <si>
+    <t>- Report follows a clear structure
+- Report documents all the parts of the research done 
+- Report is well written, with a very few writing errors
+- Abstract captures the essence of the work
+- Report properly acknowledges other work most of the time and contains a mostly complete list of references
+- Work yields some other output (e.g. software, data), which is added to the report and published in an ad hoc manner
+- Presentation follows a clear structure
+- Presentation gives a very good summary of motivation, problem, work done, results and conclusions
+- Very good presentation material (e.g. slides, videos, demos)
+- Interaction with the audience is very good (eye contact, body language, tone of voice, pace of speaking)
+- Maintains constant attention of the audience
+- Questions are answered well, without further deepening in the topic
+- Masters the content within the research topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Report follows a clear and logical structure
+- Report thoroughly documents all the parts of the research done, which could be readily replicated using only the report as a base
+- Report is well written using clear scientific language and few errors
+- Report is visually appealing and uses figures and tables to best explain aspects of the research
+- Abstract captures the essence of the work
+- Report properly acknowledges other work everywhere and contains a complete and well-formatted list of references
+- Work attempts to yield other output (e.g. software, data) whenever possible, which is published following open science best practices (e.g. fully available source code on public repository with documentation and sample data)
+- Presentation follows a clear and logical structure
+- Presentation gives an easy to understand summary of motivation, problem, work done, results and conclusions
+- High-quality presentation material (e.g. slides, videos, demos)
+- Interaction with the audience is outstanding (eye contact, body language, tone of voice, pace of speaking)
+- Maintains constant attention of the audience
+- Questions are answered succinctly and with full awareness of the strengths and weaknesses of the research
+- Masters the content beyond the research topic
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="#,##0%"/>
-  </numFmts>
-  <fonts count="5">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Tahoma Bold"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,48 +415,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -363,233 +430,98 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color theme="3"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color theme="3"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color theme="3"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="3"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalDown="1">
       <left style="thin">
-        <color theme="3"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="3"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="3"/>
-      </left>
-      <right style="thin">
-        <color theme="3"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="3"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="3"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,11 +540,11 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FF84B4DF"/>
-      <rgbColor rgb="FFA7A7A7"/>
-      <rgbColor rgb="FFADCDEA"/>
-      <rgbColor rgb="FFE4E4E4"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFD5D5D5"/>
       <rgbColor rgb="00FF00FF"/>
       <rgbColor rgb="0000FFFF"/>
       <rgbColor rgb="00800000"/>
@@ -676,109 +608,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>969671</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>642977</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>732366</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>246375</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="969671" y="10040977"/>
-          <a:ext cx="792806" cy="266620"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>2018-02-12</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
-    <a:clrScheme name="Office Theme">
+    <a:clrScheme name="Blank">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -786,28 +619,28 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="5E5E5E"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="535353"/>
+        <a:srgbClr val="D5D5D5"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="00A2FF"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="16E7CF"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="61D836"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="FAE232"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="FF644E"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="EF5FA7"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -816,19 +649,19 @@
         <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office Theme">
+    <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office Theme">
+    <a:fmtScheme name="Blank">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -966,50 +799,47 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:schemeClr val="accent1"/>
         </a:solidFill>
         <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:noFill/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1263,12 +1093,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1561,11 +1391,11 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1589,10 +1419,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1849,429 +1679,350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19978CFD-48D0-074F-9B14-850411F38B44}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="78" customWidth="1"/>
+    <col min="3" max="3" width="94.1640625" customWidth="1"/>
+    <col min="4" max="4" width="103.5" customWidth="1"/>
+    <col min="5" max="5" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="35" customHeight="1">
-      <c r="I1" s="20"/>
+    <row r="1" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4">
+    <row r="2" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="154" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="204" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="221" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="238" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="314" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>10</v>
       </c>
-      <c r="E2" s="4">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4">
-        <v>7</v>
-      </c>
-      <c r="H2" s="21">
-        <v>6</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="2:9" ht="42" customHeight="1">
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="84.75" customHeight="1">
-      <c r="B5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="53.25" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="84.75" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="42" customHeight="1">
-      <c r="B8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="2:9" ht="63.75" customHeight="1">
-      <c r="B10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="53.25" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="31.5" customHeight="1">
-      <c r="B12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="2:9" ht="52.5" customHeight="1">
-      <c r="B14" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="16">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="63" customHeight="1">
-      <c r="B15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="31"/>
-    </row>
-    <row r="17" spans="2:9" ht="63.75" customHeight="1">
-      <c r="B17" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0.08</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="52.5" customHeight="1">
-      <c r="B18" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" s="32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="35" customHeight="1">
-      <c r="I19" s="33">
-        <f>I4*0.05+I5*0.1+I6*0.15+I7*0.15+I8*0.05+I10*0.05+I11*0.1+I12*0.05+I14*0.08+I15*0.07+I17*0.08+I18*0.07</f>
-        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78740200000000005" right="0" top="0" bottom="0" header="0.10315000000000001" footer="0.10315000000000001"/>
-  <pageSetup scale="65" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="35" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C860F886F658DC4189EA957E19BD6912" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="30e208b39a3afa145325eb6dbccbaf4d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f358b49-f910-4dbb-8e68-14f5c0e20333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b5195d777a8e00640e0fe2e3fe7bcb6" ns2:_="">
+    <xsd:import namespace="1f358b49-f910-4dbb-8e68-14f5c0e20333"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1f358b49-f910-4dbb-8e68-14f5c0e20333" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhoudstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DF856AB-4EDA-42E5-B739-384AC0B263F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1f358b49-f910-4dbb-8e68-14f5c0e20333"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA46497F-D47F-4D31-95A9-4A76271BD1BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1f358b49-f910-4dbb-8e68-14f5c0e20333"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC3B8E9-F1D0-4F39-99F0-E3EC251C06AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>